--- a/ATU Reports/Results/Run_2/(ATU Reports) Run_2.xlsx
+++ b/ATU Reports/Results/Run_2/(ATU Reports) Run_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Total Test Cases</t>
   </si>
@@ -52,16 +52,19 @@
     <t>ATU_TestCase_ID</t>
   </si>
   <si>
-    <t>evr.test.Regression</t>
-  </si>
-  <si>
-    <t>T1534937</t>
+    <t>myrp.test.Regression</t>
+  </si>
+  <si>
+    <t>RT_07810</t>
+  </si>
+  <si>
+    <t>T1534935</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>136 Sec</t>
+    <t>29 Sec</t>
   </si>
   <si>
     <t>Passed</t>
@@ -88,42 +91,24 @@
     <t>Screenshot</t>
   </si>
   <si>
-    <t>Create an order and successfully view the order by: 1. From ValEx, view the order as a valuer widely used 2. Input an order number on the Debug Page less priority</t>
-  </si>
-  <si>
-    <t>vxj-000000593826</t>
-  </si>
-  <si>
-    <t>Successfully view the Dekstop EVR - Overview tab after the order has been accepted on ValEx.</t>
-  </si>
-  <si>
-    <t>Successfully view the Desktop EVR - Overview tab after the order has been accepted on ValEx.</t>
-  </si>
-  <si>
-    <t>1411440971 Sec</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>1.Open order at rpdesktop UI
-2.Navigate to Sales Evidence page
-3.Add Comparable Sales
-4.Click on Sales shortlist tab and verify selected properties were on the list
-5.Click on submission page
-6.Verify a Save Alert Dialog Box will display
-7.Clicked YES, verify screen navigates to submission page and selected properties were displayed at Sales Evidence section
-8.Navigate back to Sales Evidence page and verify selected properties were listed on the Sales Shortlist tab
-9.Add another comparable sale and click on Submission page
-10.Clicked NO, verify screen navigates to submission page
-11.Verify that added comparable sale was not listed on the Sales Evidence section - Submission page.
-12.Verify at Sales Evidence page, Sales Shortlist tab that the added comparable sale was not listed</t>
-  </si>
-  <si>
-    <t>Save Alert Dialog Box behaves accordingly at Sales Shortlist tab.</t>
-  </si>
-  <si>
-    <t>130 Sec</t>
+    <t xml:space="preserve">Scenario: Verify that all landing pages has loaded correctly and all expected elements on the page are in placed
+</t>
+  </si>
+  <si>
+    <t>LANDING PAGE</t>
+  </si>
+  <si>
+    <t>Given user is in page {Page Name} and url is {URL}
+Then {Page Name} should load with complete elements</t>
+  </si>
+  <si>
+    <t>Succesfully Visted All the Pages with Complete Element</t>
+  </si>
+  <si>
+    <t>1413538965 Sec</t>
+  </si>
+  <si>
+    <t>43</t>
   </si>
   <si>
     <t>Go To TestSuite Sheet</t>
@@ -636,19 +621,19 @@
         <v>13</v>
       </c>
       <c r="D2" t="s" s="22">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s" s="23">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s" s="24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s" s="17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s" s="18">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -690,25 +675,25 @@
         <v>4</v>
       </c>
       <c r="B1" t="s" s="28">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s" s="29">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s" s="30">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s" s="31">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s" s="32">
         <v>9</v>
       </c>
       <c r="G1" t="s" s="33">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H1" t="s" s="34">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
@@ -716,73 +701,46 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="A3" t="s" s="35">
         <v>31</v>
       </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="35">
-        <v>33</v>
-      </c>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A3:H3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2"/>
-    <hyperlink location="'TestSuite'!A1" ref="A4"/>
+    <hyperlink location="'TestSuite'!A1" ref="A3"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
